--- a/result.xlsx
+++ b/result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -577,6 +577,54 @@
         <v>414</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karice</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-01-06 03:49:41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-01-06 03:50:00</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-01-06 06:23:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -624,6 +624,14 @@
           <t>2023-01-06 06:23:59</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-01-06 08:39:51</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>8152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -633,6 +633,74 @@
         <v>8152</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karice</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20230109</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-01-09 10:24:12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-01-09 10:24:19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20230109</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-01-09 07:19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>김선만</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20230109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-01-09 07:34:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
